--- a/data/case1/18/Q1_1.xlsx
+++ b/data/case1/18/Q1_1.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.13302087546681207</v>
+        <v>0.09476902780640728</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999477007293</v>
+        <v>-0.0059999999801654269</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999571236344</v>
+        <v>-0.003999999984117153</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.007999999920306422</v>
+        <v>-0.0079999999691295898</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.002999999960112909</v>
+        <v>-0.0029999999834817714</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999624182863</v>
+        <v>-0.0019999999824094061</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.009999999894525935</v>
+        <v>-0.0099999999566602327</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999998936954881</v>
+        <v>0.038813731292671516</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999623747655</v>
+        <v>-0.0019999999814288572</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999631430398</v>
+        <v>-0.001999999979984679</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999546905798</v>
+        <v>-0.002999999976594836</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.026652029228327656</v>
+        <v>-0.0034999999745388699</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999469693677</v>
+        <v>-0.0034999999731288867</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999999077591255</v>
+        <v>-0.0079999999581437109</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999996682331727</v>
+        <v>-0.00099999998070199325</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.001999999957682963</v>
+        <v>-0.0019999999772082333</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999569852989</v>
+        <v>-0.0019999999769462207</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999397393182</v>
+        <v>-0.0039999999703317357</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0039999999645838891</v>
+        <v>0.031303192301287641</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.0029778794464210279</v>
+        <v>-0.0039999999858668644</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.003999999962811529</v>
+        <v>-0.0039999999857274204</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999625512928</v>
+        <v>-0.0039999999856084045</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999457988054</v>
+        <v>-0.0049999999811429774</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999813098412</v>
+        <v>0.039639428746715666</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999810634606</v>
+        <v>-0.019999999932340806</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999575019416</v>
+        <v>-0.0024999999798627215</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999565613606</v>
+        <v>-0.0024999999784420801</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999570812221</v>
+        <v>-0.001999999974423794</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999999119758627</v>
+        <v>-0.0069999999540701907</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.055139479432164684</v>
+        <v>-0.059999999779500879</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999999175003325</v>
+        <v>-0.0069999999506009658</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999998942745805</v>
+        <v>-0.0099999999406499285</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.057631305409735489</v>
+        <v>-0.0039999999601025849</v>
       </c>
     </row>
   </sheetData>
